--- a/peg_solitaire_visual_helper_for_recursion_code (1).xlsx
+++ b/peg_solitaire_visual_helper_for_recursion_code (1).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="67">
   <si>
     <t>v</t>
   </si>
@@ -222,13 +222,19 @@
   </si>
   <si>
     <t>Or maybe better, generate SVG from CSV (which is created from an Excel cell-selection to highlight, see https://excelribbon.tips.net/T010780_Colors_in_an_IF_Function.html )</t>
+  </si>
+  <si>
+    <t>Or based on content or not have a 1 or 0 in a different layer, save that as CSV and generate SVG</t>
+  </si>
+  <si>
+    <t>€</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +302,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -439,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -540,6 +552,7 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -821,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:BC28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="AM8" sqref="AM8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,42 +1522,50 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
     </row>
-    <row r="17" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="L17" s="12" t="s">
         <v>49</v>
       </c>
       <c r="S17" s="13"/>
     </row>
-    <row r="18" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="L18" s="12" t="s">
         <v>50</v>
       </c>
       <c r="S18" s="13"/>
     </row>
-    <row r="19" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S19" s="13"/>
     </row>
-    <row r="20" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S20" s="13"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="BC25" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
